--- a/作成リスト_パワー.xlsx
+++ b/作成リスト_パワー.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -234,10 +234,6 @@
   </si>
   <si>
     <t>_Lose</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アニメーション(パワー)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -771,72 +767,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,13 +774,79 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,7 +1131,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A3" sqref="A3:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1155,56 +1151,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="str">
+        <f>CONCATENATE("アニメーション(パワー)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
+        <v>アニメーション(パワー)：0／54</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="16" t="str">
         <f>CONCATENATE(COUNTIF(G3:G79,"〇"),"／",COUNTA(F3:F79))</f>
         <v>0／18</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="16" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
         <v>0／18</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="16" t="str">
         <f>CONCATENATE(COUNTIF(K3:K79,"〇"),"／",COUNTA(J3:J79))</f>
@@ -1212,16 +1209,16 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="17" t="str">
         <f>CONCATENATE($F$2,N3)</f>
@@ -1243,14 +1240,14 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="34"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="17" t="str">
         <f t="shared" ref="F4:F20" si="0">CONCATENATE($F$2,N4)</f>
@@ -1272,14 +1269,14 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="34"/>
-      <c r="B5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1301,13 +1298,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="34"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="44"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Guard</v>
@@ -1328,13 +1325,13 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="34"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="44"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Guard_Break</v>
@@ -1355,14 +1352,14 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="34"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1384,14 +1381,14 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="34"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1413,14 +1410,14 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="34"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1442,13 +1439,13 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="34"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="44"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Stun</v>
@@ -1469,14 +1466,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="34"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1498,14 +1495,14 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="34"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1527,15 +1524,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="34"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="44"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Rolling</v>
@@ -1556,18 +1553,18 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="34"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1589,13 +1586,13 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="45"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Attack_Ground_M</v>
@@ -1616,14 +1613,14 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1645,13 +1642,13 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="43"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Hammer_Attack_Special</v>
@@ -1672,16 +1669,16 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1703,14 +1700,14 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="35"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1789,6 +1786,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="A19:A20"/>
@@ -1805,11 +1807,6 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト_パワー.xlsx
+++ b/作成リスト_パワー.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\2年生卒業制作3\UE4NetworkGameProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttc2021-2022\2022\UE4NetworkGameProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="アニメーション(パワー)" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -302,6 +303,38 @@
     <rPh sb="4" eb="7">
       <t>ヨウケントウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1131,29 +1164,29 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="5" width="5.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.9140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.58203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.58203125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="8.6640625" style="1"/>
-    <col min="14" max="14" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="1"/>
+    <col min="4" max="5" width="5.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.59765625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="8.69921875" style="1"/>
+    <col min="14" max="14" width="2.09765625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="str">
         <f>CONCATENATE("アニメーション(パワー)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
-        <v>アニメーション(パワー)：0／54</v>
+        <v>アニメーション(パワー)：22／54</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -1180,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -1191,14 +1224,14 @@
       </c>
       <c r="G2" s="16" t="str">
         <f>CONCATENATE(COUNTIF(G3:G79,"〇"),"／",COUNTA(F3:F79))</f>
-        <v>0／18</v>
+        <v>11／18</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>43</v>
       </c>
       <c r="I2" s="16" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
-        <v>0／18</v>
+        <v>11／18</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>45</v>
@@ -1208,7 +1241,7 @@
         <v>0／18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
@@ -1224,12 +1257,16 @@
         <f>CONCATENATE($F$2,N3)</f>
         <v>Hammer_Neutral</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H3" s="17" t="str">
         <f>CONCATENATE($H$2,N3)</f>
         <v>Axe_Neutral</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="J3" s="17" t="str">
         <f>CONCATENATE($J$2,N3)</f>
         <v>GreatSword_Neutral</v>
@@ -1239,7 +1276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="37"/>
       <c r="B4" s="26" t="s">
         <v>4</v>
@@ -1253,12 +1290,16 @@
         <f t="shared" ref="F4:F20" si="0">CONCATENATE($F$2,N4)</f>
         <v>Hammer_Move</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H4" s="17" t="str">
         <f t="shared" ref="H4:H20" si="1">CONCATENATE($H$2,N4)</f>
         <v>Axe_Move</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="J4" s="17" t="str">
         <f t="shared" ref="J4:J20" si="2">CONCATENATE($J$2,N4)</f>
         <v>GreatSword_Move</v>
@@ -1268,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="37"/>
       <c r="B5" s="26" t="s">
         <v>48</v>
@@ -1282,12 +1323,16 @@
         <f t="shared" si="0"/>
         <v>Hammer_Jump</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H5" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Axe_Jump</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="2"/>
         <v>GreatSword_Jump</v>
@@ -1297,7 +1342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="37"/>
       <c r="B6" s="31" t="s">
         <v>15</v>
@@ -1309,12 +1354,16 @@
         <f t="shared" si="0"/>
         <v>Hammer_Guard</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Axe_Guard</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J6" s="17" t="str">
         <f t="shared" si="2"/>
         <v>GreatSword_Guard</v>
@@ -1324,7 +1373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="37"/>
       <c r="B7" s="31" t="s">
         <v>16</v>
@@ -1351,7 +1400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="37"/>
       <c r="B8" s="31" t="s">
         <v>17</v>
@@ -1365,12 +1414,16 @@
         <f t="shared" si="0"/>
         <v>Hammer_Damage</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H8" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Axe_Damage</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="J8" s="17" t="str">
         <f t="shared" si="2"/>
         <v>GreatSword_Damage</v>
@@ -1380,7 +1433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="37"/>
       <c r="B9" s="31" t="s">
         <v>18</v>
@@ -1394,12 +1447,16 @@
         <f t="shared" si="0"/>
         <v>Hammer_Burst</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H9" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Axe_Burst</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="J9" s="17" t="str">
         <f t="shared" si="2"/>
         <v>GreatSword_Burst</v>
@@ -1409,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="37"/>
       <c r="B10" s="31" t="s">
         <v>22</v>
@@ -1423,12 +1480,16 @@
         <f t="shared" si="0"/>
         <v>Hammer_Down</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H10" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Axe_Down</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="J10" s="17" t="str">
         <f t="shared" si="2"/>
         <v>GreatSword_Down</v>
@@ -1438,7 +1499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="37"/>
       <c r="B11" s="31" t="s">
         <v>19</v>
@@ -1465,7 +1526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="37"/>
       <c r="B12" s="31" t="s">
         <v>20</v>
@@ -1479,12 +1540,16 @@
         <f t="shared" si="0"/>
         <v>Hammer_Wake_Up</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H12" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Axe_Wake_Up</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="J12" s="17" t="str">
         <f t="shared" si="2"/>
         <v>GreatSword_Wake_Up</v>
@@ -1494,7 +1559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="37"/>
       <c r="B13" s="34" t="s">
         <v>21</v>
@@ -1505,7 +1570,7 @@
         <v>47</v>
       </c>
       <c r="F13" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE($F$2,N13)</f>
         <v>Hammer_Revival</v>
       </c>
       <c r="G13" s="5"/>
@@ -1523,7 +1588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="37"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
@@ -1552,7 +1617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="37"/>
       <c r="B15" s="29" t="s">
         <v>26</v>
@@ -1570,12 +1635,16 @@
         <f t="shared" si="0"/>
         <v>Hammer_Attack_Ground_L</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="H15" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Axe_Attack_Ground_L</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="J15" s="17" t="str">
         <f t="shared" si="2"/>
         <v>GreatSword_Attack_Ground_L</v>
@@ -1585,7 +1654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -1612,7 +1681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="30"/>
@@ -1626,12 +1695,16 @@
         <f t="shared" si="0"/>
         <v>Hammer_Attack_Charge</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="H17" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Axe_Attack_Charge</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J17" s="17" t="str">
         <f t="shared" si="2"/>
         <v>GreatSword_Attack_Charge</v>
@@ -1641,7 +1714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="26" t="s">
@@ -1668,7 +1741,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
         <v>35</v>
       </c>
@@ -1681,15 +1754,19 @@
         <v>47</v>
       </c>
       <c r="F19" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE($F$2,N19)</f>
         <v>Hammer_Win</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="H19" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Axe_Win</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="J19" s="17" t="str">
         <f t="shared" si="2"/>
         <v>GreatSword_Win</v>
@@ -1699,7 +1776,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="30"/>
       <c r="B20" s="26" t="s">
         <v>37</v>
@@ -1713,12 +1790,16 @@
         <f t="shared" si="0"/>
         <v>Hammer_Lose</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="H20" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Axe_Lose</v>
       </c>
-      <c r="I20" s="15"/>
+      <c r="I20" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="J20" s="17" t="str">
         <f t="shared" si="2"/>
         <v>GreatSword_Lose</v>
@@ -1728,7 +1809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1741,7 +1822,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1754,7 +1835,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1767,7 +1848,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1780,7 +1861,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:14" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:14" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>

--- a/作成リスト_パワー.xlsx
+++ b/作成リスト_パワー.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -256,20 +256,6 @@
   </si>
   <si>
     <t>Axe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル名(大剣)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>タイケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GreatSword</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -776,6 +762,54 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -791,21 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,39 +832,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1131,7 +1117,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1144,22 +1130,21 @@
     <col min="7" max="7" width="7.9140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="32.58203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.58203125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="8.6640625" style="1"/>
-    <col min="14" max="14" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="1"/>
+    <col min="10" max="11" width="8.6640625" style="1"/>
+    <col min="12" max="12" width="8.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="38" t="str">
-        <f>CONCATENATE("アニメーション(パワー)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
-        <v>アニメーション(パワー)：0／54</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="24" t="s">
-        <v>46</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="24" t="str">
+        <f>CONCATENATE("アニメーション(パワー)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100)))</f>
+        <v>アニメーション(パワー)：0／36</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>40</v>
@@ -1173,19 +1158,13 @@
       <c r="I1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="25"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="11" t="s">
         <v>41</v>
       </c>
@@ -1200,83 +1179,66 @@
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
         <v>0／18</v>
       </c>
-      <c r="J2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="16" t="str">
-        <f>CONCATENATE(COUNTIF(K3:K79,"〇"),"／",COUNTA(J3:J79))</f>
-        <v>0／18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="20" t="s">
-        <v>47</v>
-      </c>
       <c r="F3" s="17" t="str">
-        <f>CONCATENATE($F$2,N3)</f>
+        <f>CONCATENATE($F$2,L3)</f>
         <v>Hammer_Neutral</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="17" t="str">
-        <f>CONCATENATE($H$2,N3)</f>
+        <f>CONCATENATE($H$2,L3)</f>
         <v>Axe_Neutral</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="17" t="str">
-        <f>CONCATENATE($J$2,N3)</f>
-        <v>GreatSword_Neutral</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="37"/>
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="34"/>
+      <c r="B4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="17" t="str">
-        <f t="shared" ref="F4:F20" si="0">CONCATENATE($F$2,N4)</f>
+        <f t="shared" ref="F4:F20" si="0">CONCATENATE($F$2,L4)</f>
         <v>Hammer_Move</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="17" t="str">
-        <f t="shared" ref="H4:H20" si="1">CONCATENATE($H$2,N4)</f>
+        <f t="shared" ref="H4:H20" si="1">CONCATENATE($H$2,L4)</f>
         <v>Axe_Move</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="17" t="str">
-        <f t="shared" ref="J4:J20" si="2">CONCATENATE($J$2,N4)</f>
-        <v>GreatSword_Move</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="N4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="37"/>
-      <c r="B5" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="34"/>
+      <c r="B5" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1288,22 +1250,17 @@
         <v>Axe_Jump</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Jump</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="N5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="37"/>
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="34"/>
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="22"/>
       <c r="F6" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1315,22 +1272,17 @@
         <v>Axe_Guard</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Guard</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="N6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="37"/>
-      <c r="B7" s="31" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="34"/>
+      <c r="B7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="22"/>
       <c r="F7" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1342,24 +1294,19 @@
         <v>Axe_Guard_Break</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Guard_Break</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="N7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="37"/>
-      <c r="B8" s="31" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="34"/>
+      <c r="B8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1371,24 +1318,19 @@
         <v>Axe_Damage</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Damage</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="N8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="37"/>
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="34"/>
+      <c r="B9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1400,24 +1342,19 @@
         <v>Axe_Burst</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Burst</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="N9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="37"/>
-      <c r="B10" s="31" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="34"/>
+      <c r="B10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1429,22 +1366,17 @@
         <v>Axe_Down</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Down</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="N10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="37"/>
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="34"/>
+      <c r="B11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="22"/>
       <c r="F11" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1456,24 +1388,19 @@
         <v>Axe_Stun</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Stun</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="N11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="37"/>
-      <c r="B12" s="31" t="s">
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="34"/>
+      <c r="B12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1485,24 +1412,19 @@
         <v>Axe_Wake_Up</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Wake_Up</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="N12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="37"/>
-      <c r="B13" s="34" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="34"/>
+      <c r="B13" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1514,24 +1436,19 @@
         <v>Axe_Revival</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Revival</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="N13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="37"/>
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="34"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="22"/>
       <c r="F14" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1543,28 +1460,23 @@
         <v>Axe_Rolling</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Rolling</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="N14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="37"/>
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="34"/>
+      <c r="B15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1576,19 +1488,14 @@
         <v>Axe_Attack_Ground_L</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Attack_Ground_L</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="N15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="9" t="s">
         <v>29</v>
       </c>
@@ -1603,24 +1510,19 @@
         <v>Axe_Attack_Ground_M</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Attack_Ground_M</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="N16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="30"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1632,22 +1534,17 @@
         <v>Axe_Attack_Charge</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Attack_Charge</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="N17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="28"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="44"/>
       <c r="E18" s="21"/>
       <c r="F18" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1659,26 +1556,21 @@
         <v>Axe_Attack_Special</v>
       </c>
       <c r="I18" s="15"/>
-      <c r="J18" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Attack_Special</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="N18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1690,24 +1582,19 @@
         <v>Axe_Win</v>
       </c>
       <c r="I19" s="15"/>
-      <c r="J19" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Win</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="N19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="30"/>
-      <c r="B20" s="26" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="35"/>
+      <c r="B20" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1719,16 +1606,11 @@
         <v>Axe_Lose</v>
       </c>
       <c r="I20" s="15"/>
-      <c r="J20" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>GreatSword_Lose</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="N20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1738,10 +1620,8 @@
       <c r="G21" s="15"/>
       <c r="H21" s="17"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1751,10 +1631,8 @@
       <c r="G22" s="15"/>
       <c r="H22" s="17"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1764,10 +1642,8 @@
       <c r="G23" s="15"/>
       <c r="H23" s="17"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="24" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1777,20 +1653,13 @@
       <c r="G24" s="7"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B3:D3"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="A19:A20"/>
@@ -1807,6 +1676,11 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
